--- a/sample_data_4_uiPath.xlsx
+++ b/sample_data_4_uiPath.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheolmin.hwang\Documents\UiPath\OrchestrationPOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheolmin.hwang\Documents\UiPath\SunWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1035" windowWidth="23775" windowHeight="14625"/>
+    <workbookView xWindow="1728" yWindow="1032" windowWidth="23772" windowHeight="14628"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Category 1</t>
   </si>
@@ -1014,13 +1014,25 @@
     <t>A01</t>
   </si>
   <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Category 3</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Category 4</t>
+  </si>
+  <si>
+    <t>Action 3</t>
+  </si>
+  <si>
     <t>E02</t>
-  </si>
-  <si>
-    <t>C99</t>
-  </si>
-  <si>
-    <t>C14</t>
   </si>
 </sst>
 </file>
@@ -1447,28 +1459,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A1:A3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="8" max="10" width="14.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1493,14 +1505,26 @@
       <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="M1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1523,16 +1547,22 @@
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="1">
+        <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1555,12 +1585,20 @@
         <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="1">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
